--- a/release xlsx/regresion formula.xlsx
+++ b/release xlsx/regresion formula.xlsx
@@ -16,18 +16,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
-  <si>
-    <t>C(CPt) ug/ml</t>
-  </si>
-  <si>
-    <t>ABS 70/30</t>
-  </si>
-  <si>
-    <t>ABS 50/50</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>ABS73</t>
+  </si>
+  <si>
+    <t>ABS55</t>
+  </si>
+  <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>pABS73</t>
+  </si>
+  <si>
+    <t>pC</t>
+  </si>
+  <si>
+    <t>pABS55</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>pI - pC</t>
+  </si>
+  <si>
+    <t>encaps%</t>
+  </si>
+  <si>
+    <t>pI-pC</t>
+  </si>
+  <si>
+    <t>extABS73</t>
+  </si>
+  <si>
+    <t>extABS55</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>proc</t>
+  </si>
+  <si>
+    <t>50:50</t>
+  </si>
+  <si>
+    <t>70:30</t>
+  </si>
+  <si>
+    <t>labels</t>
   </si>
 </sst>
 </file>
@@ -64,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -73,339 +122,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pl-PL"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$D$4:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>8.2643125653999987E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6339528834649993E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.654734312906624E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3751164548826655E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3687917451672067E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2873880219991802E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2455381798799794E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3709362011469993E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2414207688886752E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0427201239122166E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="53549696"/>
-        <c:axId val="53548160"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="53549696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53548160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="53548160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53549696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pl-PL"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$B$4:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$H$4:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.7521121863200004E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2378697084380001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.699952749760949E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7581488628340224E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1040656398870847E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1498011987471768E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8821694218686794E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0264741851267171E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8554569100481678E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2163947271912041E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="117691136"/>
-        <c:axId val="59467648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="117691136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59467648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="59467648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117691136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H13"/>
+  <dimension ref="B3:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -704,26 +420,70 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:23">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
       <c r="B4">
         <v>1</v>
       </c>
@@ -731,18 +491,68 @@
         <v>0.110414</v>
       </c>
       <c r="D4">
-        <f>(0.0853661*C4)-0.0011613</f>
-        <v>8.2643125653999987E-3</v>
+        <f>(0.0432675*C4)-0.001215</f>
+        <v>3.5623377449999997E-3</v>
+      </c>
+      <c r="E4">
+        <f>D4/$N$4*100</f>
+        <v>1.8585400257273714</v>
       </c>
       <c r="G4">
         <v>6.9271200000000005E-2</v>
       </c>
       <c r="H4">
-        <f>(0.0853661*G4)-0.0011613</f>
-        <v>4.7521121863200004E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <f>(0.0432675*G4)-0.001215</f>
+        <v>1.7821916460000003E-3</v>
+      </c>
+      <c r="I4">
+        <f>H4/$R$4*100</f>
+        <v>1.22575243604789</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>1.8081799999999999</v>
+      </c>
+      <c r="M4">
+        <f>0.14719*L4-0.12782</f>
+        <v>0.13832601419999996</v>
+      </c>
+      <c r="N4">
+        <f>0.33-M4</f>
+        <v>0.19167398580000006</v>
+      </c>
+      <c r="O4">
+        <f>N4/0.33*100</f>
+        <v>58.083026000000018</v>
+      </c>
+      <c r="P4">
+        <v>2.4977</v>
+      </c>
+      <c r="Q4">
+        <f>0.115098*P4-0.102876</f>
+        <v>0.18460427460000003</v>
+      </c>
+      <c r="R4">
+        <f>0.33-Q4</f>
+        <v>0.14539572539999998</v>
+      </c>
+      <c r="S4">
+        <f>R4/0.33*100</f>
+        <v>44.059310727272724</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
+        <v>95.473293590033336</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23">
       <c r="B5">
         <v>2</v>
       </c>
@@ -750,18 +560,68 @@
         <v>8.8895299999999997E-2</v>
       </c>
       <c r="D5">
-        <f>((0.0853661*C5)-0.0011613)+(D4-(39*D4/40))</f>
-        <v>6.6339528834649993E-3</v>
+        <f>((0.0432675*C5)-0.001215)+(D4-(39*D4/40))</f>
+        <v>2.720335836375E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E14" si="0">D5/$N$4*100</f>
+        <v>1.4192514571140094</v>
       </c>
       <c r="G5">
         <v>7.3569800000000005E-2</v>
       </c>
       <c r="H5">
-        <f>((0.0853661*G5)-0.0011613)+(H4-(39*H4/40))</f>
-        <v>5.2378697084380001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <f>((0.0432675*G5)-0.001215)+(H4-(39*H4/40))</f>
+        <v>2.0127361126500007E-3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I14" si="1">H5/$R$4*100</f>
+        <v>1.38431587800311</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>0.97726500000000005</v>
+      </c>
+      <c r="M5">
+        <f>0.14719*L5-0.12782</f>
+        <v>1.6023635350000009E-2</v>
+      </c>
+      <c r="N5">
+        <f>0.35398-M5</f>
+        <v>0.33795636465000001</v>
+      </c>
+      <c r="O5">
+        <f>N5/0.35398*100</f>
+        <v>95.473293590033336</v>
+      </c>
+      <c r="P5">
+        <v>1.86155</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q8" si="2">0.115098*P5-0.102876</f>
+        <v>0.11138468190000003</v>
+      </c>
+      <c r="R5">
+        <f>0.35396-Q5</f>
+        <v>0.24257531809999996</v>
+      </c>
+      <c r="S5">
+        <f>R5/0.35398*100</f>
+        <v>68.527972795073154</v>
+      </c>
+      <c r="U5">
+        <v>200</v>
+      </c>
+      <c r="V5">
+        <v>91.30329835018928</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
       <c r="B6">
         <v>3</v>
       </c>
@@ -769,18 +629,68 @@
         <v>8.9616199999999993E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D13" si="0">((0.0853661*C6)-0.0011613)+(D5-(39*D5/40))</f>
-        <v>6.654734312906624E-3</v>
+        <f t="shared" ref="D6:D14" si="3">((0.0432675*C6)-0.001215)+(D5-(39*D5/40))</f>
+        <v>2.730477329409375E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.4245424688243606</v>
       </c>
       <c r="G6">
         <v>7.8840499999999994E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H13" si="1">((0.0853661*G6)-0.0011613)+(H5-(39*H5/40))</f>
-        <v>5.699952749760949E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+        <f t="shared" ref="H6:H14" si="4">((0.0432675*G6)-0.001215)+(H5-(39*H5/40))</f>
+        <v>2.2465497365662494E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.5451277748267624</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>1.07755</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M8" si="5">0.14719*L6-0.12782</f>
+        <v>3.078458449999999E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N8" si="6">0.35398-M6</f>
+        <v>0.32319541550000003</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O8" si="7">N6/0.35398*100</f>
+        <v>91.30329835018928</v>
+      </c>
+      <c r="P6">
+        <v>1.9727300000000001</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0.12418127754000002</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R8" si="8">0.35396-Q6</f>
+        <v>0.22977872245999997</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S8" si="9">R6/0.35398*100</f>
+        <v>64.912911028871676</v>
+      </c>
+      <c r="U6">
+        <v>300</v>
+      </c>
+      <c r="V6">
+        <v>44.230191592745363</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
       <c r="B7">
         <v>4</v>
       </c>
@@ -788,18 +698,68 @@
         <v>8.6334599999999997E-2</v>
       </c>
       <c r="D7">
+        <f t="shared" si="3"/>
+        <v>2.5887442387352343E-3</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>6.3751164548826655E-3</v>
+        <v>1.3505975930590961</v>
       </c>
       <c r="G7">
         <v>7.9386899999999996E-2</v>
       </c>
       <c r="H7">
+        <f t="shared" si="4"/>
+        <v>2.2760364391641564E-3</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>5.7581488628340224E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>1.5654080839739439</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>2.2096200000000001</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0.19741396779999998</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.15656603220000004</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>44.230191592745363</v>
+      </c>
+      <c r="P7">
+        <v>2.1651799999999999</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0.14633188763999999</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>0.20762811236000001</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="9"/>
+        <v>58.655323001299507</v>
+      </c>
+      <c r="U7">
+        <v>400</v>
+      </c>
+      <c r="V7">
+        <v>27.859576586247826</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
       <c r="B8">
         <v>7</v>
       </c>
@@ -807,18 +767,68 @@
         <v>0.28922300000000001</v>
       </c>
       <c r="D8">
+        <f t="shared" si="3"/>
+        <v>1.1363674758468383E-2</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>2.3687917451672067E-2</v>
+        <v>5.9286473910578943</v>
       </c>
       <c r="G8">
         <v>0.25839299999999998</v>
       </c>
       <c r="H8">
+        <f t="shared" si="4"/>
+        <v>1.0021920038479102E-2</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>2.1040656398870847E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>6.8928574144168779</v>
+      </c>
+      <c r="K8">
+        <v>400</v>
+      </c>
+      <c r="L8">
+        <v>2.6033200000000001</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0.25536267079999997</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>9.8617329200000048E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>27.859576586247826</v>
+      </c>
+      <c r="P8">
+        <v>3.43676</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>0.29268820248000005</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>6.1271797519999949E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="9"/>
+        <v>17.309395310469501</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8">
+        <v>68.527972795073154</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9">
         <v>8</v>
       </c>
@@ -826,18 +836,35 @@
         <v>0.274617</v>
       </c>
       <c r="D9">
+        <f t="shared" si="3"/>
+        <v>1.0951082916461711E-2</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>2.2873880219991802E-2</v>
+        <v>5.7133903021605068</v>
       </c>
       <c r="G9">
         <v>0.25927499999999998</v>
       </c>
       <c r="H9">
+        <f t="shared" si="4"/>
+        <v>1.0253729063461975E-2</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>2.1498011987471768E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>7.0522905919364636</v>
+      </c>
+      <c r="U9">
+        <v>200</v>
+      </c>
+      <c r="V9">
+        <v>64.912911028871676</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
       <c r="B10">
         <v>9</v>
       </c>
@@ -845,18 +872,35 @@
         <v>0.269953</v>
       </c>
       <c r="D10">
+        <f t="shared" si="3"/>
+        <v>1.0738968500411542E-2</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>2.2455381798799794E-2</v>
+        <v>5.6027261370862247</v>
       </c>
       <c r="G10">
         <v>0.22778999999999999</v>
       </c>
       <c r="H10">
+        <f t="shared" si="4"/>
+        <v>8.8972470515865515E-3</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
-        <v>1.8821694218686794E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+        <v>6.1193319316019945</v>
+      </c>
+      <c r="U10">
+        <v>300</v>
+      </c>
+      <c r="V10">
+        <v>58.655323001299507</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
       <c r="B11">
         <v>10</v>
       </c>
@@ -864,18 +908,35 @@
         <v>0.28476499999999999</v>
       </c>
       <c r="D11">
+        <f t="shared" si="3"/>
+        <v>1.1374543850010289E-2</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>2.3709362011469993E-2</v>
+        <v>5.9343180048850872</v>
       </c>
       <c r="G11">
         <v>0.245478</v>
       </c>
       <c r="H11">
+        <f t="shared" si="4"/>
+        <v>9.6286505412896631E-3</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v>2.0264741851267171E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+        <v>6.6223752553936253</v>
+      </c>
+      <c r="U11">
+        <v>400</v>
+      </c>
+      <c r="V11">
+        <v>17.309395310469501</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
       <c r="B12">
         <v>18</v>
       </c>
@@ -883,18 +944,26 @@
         <v>0.26922600000000002</v>
       </c>
       <c r="D12">
+        <f t="shared" si="3"/>
+        <v>1.0718099551250259E-2</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>2.2414207688886752E-2</v>
+        <v>5.5918384054651691</v>
       </c>
       <c r="G12">
         <v>0.225022</v>
       </c>
       <c r="H12">
+        <f t="shared" si="4"/>
+        <v>8.7618556485322425E-3</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
-        <v>1.8554569100481678E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>6.026212685708189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
       <c r="B13">
         <v>30</v>
       </c>
@@ -902,21 +971,55 @@
         <v>0.24632899999999999</v>
       </c>
       <c r="D13">
-        <f>((0.0853661*C13)-0.0011613)+(D12-(39*D12/40))</f>
-        <v>2.0427201239122166E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.7109924962812573E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.0664113107211524</v>
       </c>
       <c r="G13">
         <v>0.26780399999999999</v>
       </c>
       <c r="H13">
+        <f t="shared" si="4"/>
+        <v>1.0591255961213304E-2</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>2.2163947271912041E-2</v>
+        <v>7.2844342102049904</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>0.60079800000000005</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>2.5022802277407035E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>13.054876577521989</v>
+      </c>
+      <c r="G14">
+        <v>0.60301899999999997</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>2.5140905981530331E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>17.291365280763841</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
